--- a/training/data/tagging.xlsx
+++ b/training/data/tagging.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4167e8f1ae5040c7/Documents/GitHub/political-campaign-project/training/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4167e8f1ae5040c7/Documents/political-campaign-project/training/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F413C203-8A3D-499D-A834-4C2CD2B203CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{F413C203-8A3D-499D-A834-4C2CD2B203CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFACF573-C225-47A0-9970-AF1AD5384205}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tagging" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tagging!$A$1:$H$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tagging!$A$1:$K$188</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="279">
   <si>
     <t>Title</t>
   </si>
@@ -857,12 +867,15 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>definite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1696,17 +1709,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1731,8 +1747,17 @@
       <c r="H1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1746,14 +1771,26 @@
         <v>9</v>
       </c>
       <c r="H2" t="e">
-        <f>VLOOKUP(A2,L2:L85,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L2" t="s">
+        <f>VLOOKUP(A2,O2:O85,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIF($B2:$G2,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF($B2:$G2,J$1)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" t="b">
+        <f>I2*J2=0</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1770,11 +1807,23 @@
         <f t="shared" ref="H3:H66" si="0">VLOOKUP(A3,L3:L86,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L3" t="s">
+      <c r="I3">
+        <f t="shared" ref="I3:J34" si="1">COUNTIF($B3:$G3,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K66" si="2">I3*J3=0</f>
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1797,11 +1846,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L4" t="s">
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1815,11 +1876,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L5" t="s">
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1833,11 +1906,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L6" t="s">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1851,11 +1936,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L7" t="s">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1872,11 +1969,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L8" t="s">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1893,11 +2002,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L9" t="s">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1914,11 +2035,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L10" t="s">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1935,11 +2068,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L11" t="s">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1956,11 +2101,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L12" t="s">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1977,11 +2134,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L13" t="s">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1998,11 +2167,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L14" t="s">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2019,11 +2200,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L15" t="s">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2040,11 +2233,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L16" t="s">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2064,11 +2269,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L17" t="s">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2085,11 +2302,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L18" t="s">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2105,30 +2334,54 @@
       <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19" t="e">
         <f t="shared" si="0"/>
-        <v>PRES_CARSON_OUTSIDE_THE_BOX</v>
-      </c>
-      <c r="L19" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" t="e">
         <f t="shared" si="0"/>
-        <v>PRES_CHCBOLDPAC_YES_TO_WHO_WE_ARE_SP</v>
-      </c>
-      <c r="L20" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2141,15 +2394,27 @@
       <c r="F21" t="s">
         <v>8</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" t="e">
         <f t="shared" si="0"/>
-        <v>PRES_CHRISTIE_LEADERSHIP</v>
-      </c>
-      <c r="L21" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2165,15 +2430,27 @@
       <c r="F22" t="s">
         <v>8</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" t="e">
         <f t="shared" si="0"/>
-        <v>PRES_CHRISTIE_STRONG_AND_CLEAR</v>
-      </c>
-      <c r="L22" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2186,15 +2463,27 @@
       <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" t="e">
         <f t="shared" si="0"/>
-        <v>PRES_CLINTON_BARRIERS</v>
-      </c>
-      <c r="L23" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2211,11 +2500,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L24" t="s">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2232,11 +2533,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L25" t="s">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2253,11 +2566,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L26" t="s">
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2274,11 +2599,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L27" t="s">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2295,11 +2632,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L28" t="s">
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2316,11 +2665,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L29" t="s">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2337,11 +2698,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L30" t="s">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2358,11 +2731,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L31" t="s">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2379,11 +2764,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L32" t="s">
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K32" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2397,11 +2794,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L33" t="s">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K33" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2418,11 +2827,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L34" t="s">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2439,11 +2860,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L35" t="s">
+      <c r="I35">
+        <f t="shared" ref="I35:J66" si="3">COUNTIF($B35:$G35,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2463,11 +2896,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L36" t="s">
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K36" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2484,11 +2929,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L37" t="s">
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2505,11 +2962,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L38" t="s">
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2526,11 +2995,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L39" t="s">
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K39" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2547,11 +3028,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L40" t="s">
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K40" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2571,11 +3064,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L41" t="s">
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K41" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2592,11 +3097,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L42" t="s">
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2613,11 +3130,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L43" t="s">
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2634,11 +3163,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L44" t="s">
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K44" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2655,11 +3196,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L45" t="s">
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2676,11 +3229,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L46" t="s">
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2697,11 +3262,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L47" t="s">
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2724,11 +3301,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L48" t="s">
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K48" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2745,11 +3334,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L49" t="s">
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2763,11 +3364,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L50" t="s">
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2784,11 +3397,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L51" t="s">
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K51" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2799,11 +3424,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L52" t="s">
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2820,11 +3457,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L53" t="s">
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K53" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2841,11 +3490,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L54" t="s">
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2862,11 +3523,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L55" t="s">
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2883,11 +3556,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L56" t="s">
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2904,11 +3589,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L57" t="s">
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2928,11 +3625,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L58" t="s">
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2949,11 +3658,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L59" t="s">
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2970,11 +3691,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L60" t="s">
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2988,11 +3721,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L61" t="s">
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -3009,11 +3754,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L62" t="s">
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -3030,11 +3787,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L63" t="s">
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -3048,11 +3817,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L64" t="s">
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -3069,11 +3850,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L65" t="s">
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K65" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -3090,11 +3883,23 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="L66" t="s">
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K66" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -3108,14 +3913,26 @@
         <v>8</v>
       </c>
       <c r="H67" t="e">
-        <f t="shared" ref="H67:H130" si="1">VLOOKUP(A67,L67:L150,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L67" t="s">
+        <f t="shared" ref="H67:H130" si="4">VLOOKUP(A67,L67:L150,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:J98" si="5">COUNTIF($B67:$G67,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K67" t="b">
+        <f t="shared" ref="K67:K130" si="6">I67*J67=0</f>
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -3126,14 +3943,26 @@
         <v>9</v>
       </c>
       <c r="H68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L68" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3147,14 +3976,26 @@
         <v>9</v>
       </c>
       <c r="H69" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L69" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -3168,14 +4009,26 @@
         <v>9</v>
       </c>
       <c r="H70" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L70" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K70" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3189,14 +4042,26 @@
         <v>9</v>
       </c>
       <c r="H71" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L71" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -3210,14 +4075,26 @@
         <v>9</v>
       </c>
       <c r="H72" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L72" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -3231,14 +4108,26 @@
         <v>9</v>
       </c>
       <c r="H73" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L73" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -3252,14 +4141,26 @@
         <v>9</v>
       </c>
       <c r="H74" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L74" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K74" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -3270,14 +4171,26 @@
         <v>9</v>
       </c>
       <c r="H75" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L75" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -3291,14 +4204,26 @@
         <v>9</v>
       </c>
       <c r="H76" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L76" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -3315,14 +4240,26 @@
         <v>9</v>
       </c>
       <c r="H77" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L77" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -3336,14 +4273,26 @@
         <v>8</v>
       </c>
       <c r="H78" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L78" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K78" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -3357,14 +4306,26 @@
         <v>9</v>
       </c>
       <c r="H79" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L79" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -3381,14 +4342,26 @@
         <v>8</v>
       </c>
       <c r="H80" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L80" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K80" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -3399,14 +4372,26 @@
         <v>8</v>
       </c>
       <c r="H81" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L81" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K81" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -3420,14 +4405,26 @@
         <v>8</v>
       </c>
       <c r="H82" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L82" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K82" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -3444,14 +4441,26 @@
         <v>9</v>
       </c>
       <c r="H83" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L83" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K83" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -3465,14 +4474,26 @@
         <v>9</v>
       </c>
       <c r="H84" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L84" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K84" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -3483,14 +4504,26 @@
         <v>13</v>
       </c>
       <c r="H85" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L85" t="s">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K85" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -3504,11 +4537,23 @@
         <v>13</v>
       </c>
       <c r="H86" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K86" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -3519,11 +4564,23 @@
         <v>8</v>
       </c>
       <c r="H87" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K87" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -3537,11 +4594,23 @@
         <v>13</v>
       </c>
       <c r="H88" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K88" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -3558,11 +4627,23 @@
         <v>8</v>
       </c>
       <c r="H89" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K89" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -3573,11 +4654,23 @@
         <v>8</v>
       </c>
       <c r="H90" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K90" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -3591,11 +4684,23 @@
         <v>8</v>
       </c>
       <c r="H91" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K91" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -3609,11 +4714,23 @@
         <v>9</v>
       </c>
       <c r="H92" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K92" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -3627,11 +4744,23 @@
         <v>8</v>
       </c>
       <c r="H93" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K93" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -3648,11 +4777,23 @@
         <v>9</v>
       </c>
       <c r="H94" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K94" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -3666,11 +4807,23 @@
         <v>8</v>
       </c>
       <c r="H95" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K95" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -3684,11 +4837,23 @@
         <v>8</v>
       </c>
       <c r="H96" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K96" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -3702,11 +4867,23 @@
         <v>13</v>
       </c>
       <c r="H97" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -3714,11 +4891,23 @@
         <v>13</v>
       </c>
       <c r="H98" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K98" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -3729,11 +4918,23 @@
         <v>13</v>
       </c>
       <c r="H99" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ref="I99:J130" si="7">COUNTIF($B99:$G99,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K99" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -3747,11 +4948,23 @@
         <v>8</v>
       </c>
       <c r="H100" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K100" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -3765,11 +4978,23 @@
         <v>9</v>
       </c>
       <c r="H101" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K101" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -3783,11 +5008,23 @@
         <v>8</v>
       </c>
       <c r="H102" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K102" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -3801,11 +5038,23 @@
         <v>8</v>
       </c>
       <c r="H103" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K103" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -3825,11 +5074,23 @@
         <v>8</v>
       </c>
       <c r="H104" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K104" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -3843,11 +5104,23 @@
         <v>8</v>
       </c>
       <c r="H105" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K105" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -3855,11 +5128,23 @@
         <v>8</v>
       </c>
       <c r="H106" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -3873,11 +5158,23 @@
         <v>8</v>
       </c>
       <c r="H107" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K107" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -3891,11 +5188,23 @@
         <v>8</v>
       </c>
       <c r="H108" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K108" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -3909,11 +5218,23 @@
         <v>8</v>
       </c>
       <c r="H109" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K109" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -3927,11 +5248,23 @@
         <v>8</v>
       </c>
       <c r="H110" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K110" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -3945,11 +5278,23 @@
         <v>13</v>
       </c>
       <c r="H111" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K111" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -3963,11 +5308,23 @@
         <v>13</v>
       </c>
       <c r="H112" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K112" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -3981,11 +5338,23 @@
         <v>9</v>
       </c>
       <c r="H113" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K113" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -3999,11 +5368,23 @@
         <v>8</v>
       </c>
       <c r="H114" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K114" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -4017,11 +5398,23 @@
         <v>9</v>
       </c>
       <c r="H115" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K115" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -4035,11 +5428,23 @@
         <v>9</v>
       </c>
       <c r="H116" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K116" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -4053,11 +5458,23 @@
         <v>9</v>
       </c>
       <c r="H117" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K117" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -4071,11 +5488,23 @@
         <v>9</v>
       </c>
       <c r="H118" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K118" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -4089,11 +5518,23 @@
         <v>13</v>
       </c>
       <c r="H119" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K119" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -4104,11 +5545,23 @@
         <v>8</v>
       </c>
       <c r="H120" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K120" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -4122,11 +5575,23 @@
         <v>13</v>
       </c>
       <c r="H121" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K121" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -4137,11 +5602,23 @@
         <v>8</v>
       </c>
       <c r="H122" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K122" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -4158,11 +5635,23 @@
         <v>8</v>
       </c>
       <c r="H123" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K123" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -4176,11 +5665,23 @@
         <v>8</v>
       </c>
       <c r="H124" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K124" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -4194,11 +5695,23 @@
         <v>9</v>
       </c>
       <c r="H125" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K125" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -4215,11 +5728,23 @@
         <v>8</v>
       </c>
       <c r="H126" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K126" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -4233,11 +5758,23 @@
         <v>13</v>
       </c>
       <c r="H127" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K127" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -4251,11 +5788,23 @@
         <v>13</v>
       </c>
       <c r="H128" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K128" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -4266,11 +5815,23 @@
         <v>8</v>
       </c>
       <c r="H129" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K129" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -4284,11 +5845,23 @@
         <v>8</v>
       </c>
       <c r="H130" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K130" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -4302,11 +5875,23 @@
         <v>13</v>
       </c>
       <c r="H131" t="e">
-        <f t="shared" ref="H131:H188" si="2">VLOOKUP(A131,L131:L214,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H131:H188" si="8">VLOOKUP(A131,L131:L214,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:J162" si="9">COUNTIF($B131:$G131,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K131" t="b">
+        <f t="shared" ref="K131:K188" si="10">I131*J131=0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -4314,11 +5899,23 @@
         <v>9</v>
       </c>
       <c r="H132" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K132" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>143</v>
       </c>
@@ -4332,11 +5929,23 @@
         <v>8</v>
       </c>
       <c r="H133" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K133" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -4350,11 +5959,23 @@
         <v>9</v>
       </c>
       <c r="H134" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K134" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>145</v>
       </c>
@@ -4374,11 +5995,23 @@
         <v>9</v>
       </c>
       <c r="H135" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>146</v>
       </c>
@@ -4392,11 +6025,23 @@
         <v>8</v>
       </c>
       <c r="H136" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K136" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -4410,11 +6055,23 @@
         <v>8</v>
       </c>
       <c r="H137" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K137" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -4425,11 +6082,23 @@
         <v>13</v>
       </c>
       <c r="H138" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K138" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -4443,11 +6112,23 @@
         <v>9</v>
       </c>
       <c r="H139" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K139" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>150</v>
       </c>
@@ -4461,11 +6142,23 @@
         <v>9</v>
       </c>
       <c r="H140" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K140" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -4479,11 +6172,23 @@
         <v>8</v>
       </c>
       <c r="H141" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K141" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -4491,11 +6196,23 @@
         <v>13</v>
       </c>
       <c r="H142" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K142" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -4512,11 +6229,23 @@
         <v>8</v>
       </c>
       <c r="H143" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K143" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -4530,11 +6259,23 @@
         <v>8</v>
       </c>
       <c r="H144" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K144" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -4548,11 +6289,23 @@
         <v>13</v>
       </c>
       <c r="H145" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K145" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>156</v>
       </c>
@@ -4566,11 +6319,23 @@
         <v>8</v>
       </c>
       <c r="H146" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K146" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>157</v>
       </c>
@@ -4587,11 +6352,23 @@
         <v>9</v>
       </c>
       <c r="H147" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K147" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -4611,11 +6388,23 @@
         <v>9</v>
       </c>
       <c r="H148" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K148" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>159</v>
       </c>
@@ -4629,11 +6418,23 @@
         <v>8</v>
       </c>
       <c r="H149" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K149" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -4650,11 +6451,23 @@
         <v>8</v>
       </c>
       <c r="H150" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="K150" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -4668,11 +6481,23 @@
         <v>8</v>
       </c>
       <c r="H151" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K151" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -4689,11 +6514,23 @@
         <v>8</v>
       </c>
       <c r="H152" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="K152" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>163</v>
       </c>
@@ -4701,11 +6538,23 @@
         <v>13</v>
       </c>
       <c r="H153" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K153" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -4719,11 +6568,23 @@
         <v>9</v>
       </c>
       <c r="H154" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K154" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -4737,11 +6598,23 @@
         <v>9</v>
       </c>
       <c r="H155" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K155" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>166</v>
       </c>
@@ -4758,11 +6631,23 @@
         <v>9</v>
       </c>
       <c r="H156" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K156" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>167</v>
       </c>
@@ -4776,11 +6661,23 @@
         <v>9</v>
       </c>
       <c r="H157" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K157" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -4797,11 +6694,23 @@
         <v>8</v>
       </c>
       <c r="H158" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K158" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -4818,11 +6727,23 @@
         <v>8</v>
       </c>
       <c r="H159" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K159" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -4836,11 +6757,23 @@
         <v>9</v>
       </c>
       <c r="H160" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K160" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -4857,11 +6790,23 @@
         <v>8</v>
       </c>
       <c r="H161" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="K161" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -4875,11 +6820,23 @@
         <v>13</v>
       </c>
       <c r="H162" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K162" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -4893,11 +6850,23 @@
         <v>9</v>
       </c>
       <c r="H163" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I163">
+        <f t="shared" ref="I163:J188" si="11">COUNTIF($B163:$G163,I$1)</f>
+        <v>3</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>174</v>
       </c>
@@ -4905,11 +6874,23 @@
         <v>8</v>
       </c>
       <c r="H164" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K164" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>175</v>
       </c>
@@ -4920,11 +6901,23 @@
         <v>8</v>
       </c>
       <c r="H165" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K165" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>176</v>
       </c>
@@ -4932,11 +6925,23 @@
         <v>13</v>
       </c>
       <c r="H166" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K166" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>177</v>
       </c>
@@ -4950,11 +6955,23 @@
         <v>9</v>
       </c>
       <c r="H167" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K167" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>178</v>
       </c>
@@ -4965,11 +6982,23 @@
         <v>8</v>
       </c>
       <c r="H168" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K168" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>179</v>
       </c>
@@ -4983,11 +7012,23 @@
         <v>9</v>
       </c>
       <c r="H169" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K169" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>180</v>
       </c>
@@ -4995,11 +7036,23 @@
         <v>74</v>
       </c>
       <c r="H170" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K170" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -5013,11 +7066,23 @@
         <v>9</v>
       </c>
       <c r="H171" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K171" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>182</v>
       </c>
@@ -5031,11 +7096,23 @@
         <v>9</v>
       </c>
       <c r="H172" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>183</v>
       </c>
@@ -5049,11 +7126,23 @@
         <v>8</v>
       </c>
       <c r="H173" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K173" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -5064,11 +7153,23 @@
         <v>9</v>
       </c>
       <c r="H174" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K174" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>185</v>
       </c>
@@ -5085,11 +7186,23 @@
         <v>8</v>
       </c>
       <c r="H175" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K175" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>186</v>
       </c>
@@ -5106,11 +7219,23 @@
         <v>8</v>
       </c>
       <c r="H176" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="K176" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>187</v>
       </c>
@@ -5127,11 +7252,23 @@
         <v>9</v>
       </c>
       <c r="H177" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K177" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -5145,11 +7282,23 @@
         <v>8</v>
       </c>
       <c r="H178" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K178" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>189</v>
       </c>
@@ -5166,11 +7315,23 @@
         <v>8</v>
       </c>
       <c r="H179" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="K179" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>190</v>
       </c>
@@ -5184,11 +7345,23 @@
         <v>8</v>
       </c>
       <c r="H180" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="K180" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>191</v>
       </c>
@@ -5202,11 +7375,23 @@
         <v>8</v>
       </c>
       <c r="H181" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="K181" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>192</v>
       </c>
@@ -5217,11 +7402,23 @@
         <v>9</v>
       </c>
       <c r="H182" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K182" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>193</v>
       </c>
@@ -5232,11 +7429,23 @@
         <v>9</v>
       </c>
       <c r="H183" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K183" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>194</v>
       </c>
@@ -5250,11 +7459,23 @@
         <v>8</v>
       </c>
       <c r="H184" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K184" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>195</v>
       </c>
@@ -5271,11 +7492,23 @@
         <v>13</v>
       </c>
       <c r="H185" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K185" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>196</v>
       </c>
@@ -5289,11 +7522,23 @@
         <v>9</v>
       </c>
       <c r="H186" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K186" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>197</v>
       </c>
@@ -5307,11 +7552,23 @@
         <v>9</v>
       </c>
       <c r="H187" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K187" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>198</v>
       </c>
@@ -5325,12 +7582,30 @@
         <v>8</v>
       </c>
       <c r="H188" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="K188" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H188"/>
+  <autoFilter ref="A1:K188" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/training/data/tagging.xlsx
+++ b/training/data/tagging.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4167e8f1ae5040c7/Documents/political-campaign-project/training/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4167e8f1ae5040c7/Documents/GitHub/political-campaign-project/training/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{F413C203-8A3D-499D-A834-4C2CD2B203CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFACF573-C225-47A0-9970-AF1AD5384205}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{F413C203-8A3D-499D-A834-4C2CD2B203CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD58B87-529F-4008-975D-A0ADD9666E40}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tagging" sheetId="1" r:id="rId1"/>
@@ -1710,19 +1710,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -4580,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -4907,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -5234,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -5264,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -5681,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -5831,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>143</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>145</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>146</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -6098,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>150</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>156</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>157</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>159</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -6530,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>163</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>166</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>167</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>174</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>175</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>176</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>177</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>178</v>
       </c>
@@ -6998,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>179</v>
       </c>
@@ -7028,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>180</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -7082,7 +7081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>182</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>183</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>185</v>
       </c>
@@ -7202,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>186</v>
       </c>
@@ -7235,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>187</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>189</v>
       </c>
@@ -7331,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>190</v>
       </c>
@@ -7361,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>191</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>192</v>
       </c>
@@ -7418,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>193</v>
       </c>
@@ -7445,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>194</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>195</v>
       </c>
@@ -7508,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>196</v>
       </c>
@@ -7538,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>197</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>198</v>
       </c>
@@ -7599,13 +7598,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K188" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>